--- a/REGULAR/MAYORS OFFICE/MENDOZA, ARRIES.xlsx
+++ b/REGULAR/MAYORS OFFICE/MENDOZA, ARRIES.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="328">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1014,6 +1014,9 @@
   </si>
   <si>
     <t>12/21,22,27-29/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -1708,7 +1711,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K529" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K530" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2037,11 +2040,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K529"/>
+  <dimension ref="A2:K530"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <pane ySplit="3480" topLeftCell="A469" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="D489" sqref="D489"/>
+      <pane ySplit="3480" topLeftCell="A475" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E492" sqref="E492"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2202,7 +2205,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>144.82499999999996</v>
+        <v>147.32499999999996</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2212,7 +2215,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>257.20799999999997</v>
+        <v>259.70799999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -12816,15 +12819,17 @@
       <c r="B487" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="C487" s="13"/>
+      <c r="C487" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D487" s="38">
         <v>5</v>
       </c>
       <c r="E487" s="9"/>
       <c r="F487" s="20"/>
-      <c r="G487" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G487" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H487" s="38"/>
       <c r="I487" s="9"/>
@@ -12838,13 +12843,15 @@
         <v>45291</v>
       </c>
       <c r="B488" s="20"/>
-      <c r="C488" s="13"/>
+      <c r="C488" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D488" s="38"/>
       <c r="E488" s="9"/>
       <c r="F488" s="20"/>
-      <c r="G488" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G488" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H488" s="38"/>
       <c r="I488" s="9"/>
@@ -12852,8 +12859,8 @@
       <c r="K488" s="20"/>
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A489" s="39">
-        <v>45322</v>
+      <c r="A489" s="47" t="s">
+        <v>327</v>
       </c>
       <c r="B489" s="20"/>
       <c r="C489" s="13"/>
@@ -12870,8 +12877,12 @@
       <c r="K489" s="20"/>
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A490" s="39"/>
-      <c r="B490" s="20"/>
+      <c r="A490" s="39">
+        <v>45322</v>
+      </c>
+      <c r="B490" s="20" t="s">
+        <v>44</v>
+      </c>
       <c r="C490" s="13"/>
       <c r="D490" s="38"/>
       <c r="E490" s="9"/>
@@ -12883,10 +12894,14 @@
       <c r="H490" s="38"/>
       <c r="I490" s="9"/>
       <c r="J490" s="11"/>
-      <c r="K490" s="20"/>
+      <c r="K490" s="48">
+        <v>45323</v>
+      </c>
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A491" s="39"/>
+      <c r="A491" s="39">
+        <v>45351</v>
+      </c>
       <c r="B491" s="20"/>
       <c r="C491" s="13"/>
       <c r="D491" s="38"/>
@@ -12902,7 +12917,9 @@
       <c r="K491" s="20"/>
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A492" s="39"/>
+      <c r="A492" s="39">
+        <v>45382</v>
+      </c>
       <c r="B492" s="20"/>
       <c r="C492" s="13"/>
       <c r="D492" s="38"/>
@@ -12918,7 +12935,9 @@
       <c r="K492" s="20"/>
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A493" s="39"/>
+      <c r="A493" s="39">
+        <v>45412</v>
+      </c>
       <c r="B493" s="20"/>
       <c r="C493" s="13"/>
       <c r="D493" s="38"/>
@@ -12934,7 +12953,9 @@
       <c r="K493" s="20"/>
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A494" s="39"/>
+      <c r="A494" s="39">
+        <v>45443</v>
+      </c>
       <c r="B494" s="20"/>
       <c r="C494" s="13"/>
       <c r="D494" s="38"/>
@@ -12950,7 +12971,9 @@
       <c r="K494" s="20"/>
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A495" s="39"/>
+      <c r="A495" s="39">
+        <v>45473</v>
+      </c>
       <c r="B495" s="20"/>
       <c r="C495" s="13"/>
       <c r="D495" s="38"/>
@@ -12966,7 +12989,9 @@
       <c r="K495" s="20"/>
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A496" s="39"/>
+      <c r="A496" s="39">
+        <v>45504</v>
+      </c>
       <c r="B496" s="20"/>
       <c r="C496" s="13"/>
       <c r="D496" s="38"/>
@@ -12982,7 +13007,9 @@
       <c r="K496" s="20"/>
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A497" s="39"/>
+      <c r="A497" s="39">
+        <v>45535</v>
+      </c>
       <c r="B497" s="20"/>
       <c r="C497" s="13"/>
       <c r="D497" s="38"/>
@@ -12998,7 +13025,9 @@
       <c r="K497" s="20"/>
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A498" s="39"/>
+      <c r="A498" s="39">
+        <v>45565</v>
+      </c>
       <c r="B498" s="20"/>
       <c r="C498" s="13"/>
       <c r="D498" s="38"/>
@@ -13494,20 +13523,36 @@
       <c r="K528" s="20"/>
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A529" s="40"/>
-      <c r="B529" s="15"/>
-      <c r="C529" s="41"/>
-      <c r="D529" s="42"/>
+      <c r="A529" s="39"/>
+      <c r="B529" s="20"/>
+      <c r="C529" s="13"/>
+      <c r="D529" s="38"/>
       <c r="E529" s="9"/>
-      <c r="F529" s="15"/>
-      <c r="G529" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H529" s="42"/>
+      <c r="F529" s="20"/>
+      <c r="G529" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H529" s="38"/>
       <c r="I529" s="9"/>
-      <c r="J529" s="12"/>
-      <c r="K529" s="15"/>
+      <c r="J529" s="11"/>
+      <c r="K529" s="20"/>
+    </row>
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A530" s="40"/>
+      <c r="B530" s="15"/>
+      <c r="C530" s="41"/>
+      <c r="D530" s="42"/>
+      <c r="E530" s="9"/>
+      <c r="F530" s="15"/>
+      <c r="G530" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H530" s="42"/>
+      <c r="I530" s="9"/>
+      <c r="J530" s="12"/>
+      <c r="K530" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -13674,7 +13719,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>402.0329999999999</v>
+        <v>407.0329999999999</v>
       </c>
       <c r="C7" s="36">
         <v>1</v>
